--- a/matrix_progress.xlsx
+++ b/matrix_progress.xlsx
@@ -101,9 +101,6 @@
     <t>Vinther2008</t>
   </si>
   <si>
-    <t>Wiens2010</t>
-  </si>
-  <si>
     <t>Squamates</t>
   </si>
   <si>
@@ -150,6 +147,9 @@
   </si>
   <si>
     <t>pdfOut</t>
+  </si>
+  <si>
+    <t>Conrad2008 [nee Wiens2010]</t>
   </si>
 </sst>
 </file>
@@ -512,7 +512,7 @@
   <dimension ref="A1:J23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G14" sqref="G14"/>
+      <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -522,34 +522,34 @@
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D1" t="s">
+        <v>33</v>
+      </c>
+      <c r="E1" t="s">
+        <v>34</v>
+      </c>
+      <c r="F1" t="s">
+        <v>35</v>
+      </c>
+      <c r="G1" t="s">
         <v>37</v>
       </c>
-      <c r="B1" t="s">
-        <v>32</v>
-      </c>
-      <c r="C1" t="s">
-        <v>33</v>
-      </c>
-      <c r="D1" t="s">
-        <v>34</v>
-      </c>
-      <c r="E1" t="s">
-        <v>35</v>
-      </c>
-      <c r="F1" t="s">
-        <v>36</v>
-      </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>38</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>39</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>40</v>
-      </c>
-      <c r="J1" t="s">
-        <v>41</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
@@ -638,7 +638,7 @@
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B5" t="s">
         <v>5</v>
@@ -654,6 +654,9 @@
       </c>
       <c r="F5">
         <v>3.7</v>
+      </c>
+      <c r="G5">
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
@@ -675,6 +678,9 @@
       <c r="F6">
         <v>9.6</v>
       </c>
+      <c r="G6">
+        <v>1</v>
+      </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
@@ -695,6 +701,9 @@
       <c r="F7">
         <v>10</v>
       </c>
+      <c r="G7">
+        <v>1</v>
+      </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
@@ -715,6 +724,9 @@
       <c r="F8">
         <v>4.0999999999999996</v>
       </c>
+      <c r="G8">
+        <v>1</v>
+      </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
@@ -735,13 +747,16 @@
       <c r="F9">
         <v>0.4</v>
       </c>
+      <c r="G9">
+        <v>1</v>
+      </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
+        <v>26</v>
+      </c>
+      <c r="B10" t="s">
         <v>27</v>
-      </c>
-      <c r="B10" t="s">
-        <v>28</v>
       </c>
       <c r="C10">
         <v>61</v>
@@ -754,6 +769,9 @@
       </c>
       <c r="F10">
         <v>11.1</v>
+      </c>
+      <c r="G10">
+        <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
@@ -775,13 +793,16 @@
       <c r="F11">
         <v>5.4</v>
       </c>
+      <c r="G11">
+        <v>1</v>
+      </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
+        <v>41</v>
+      </c>
+      <c r="B12" t="s">
         <v>25</v>
-      </c>
-      <c r="B12" t="s">
-        <v>26</v>
       </c>
       <c r="C12">
         <v>64</v>
@@ -794,6 +815,9 @@
       </c>
       <c r="F12">
         <v>7.7</v>
+      </c>
+      <c r="G12">
+        <v>1</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
@@ -853,7 +877,7 @@
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B15" t="s">
         <v>12</v>
@@ -869,6 +893,9 @@
       </c>
       <c r="F15">
         <v>19.3</v>
+      </c>
+      <c r="G15">
+        <v>1</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
@@ -919,7 +946,7 @@
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B18" t="s">
         <v>1</v>

--- a/matrix_progress.xlsx
+++ b/matrix_progress.xlsx
@@ -113,9 +113,6 @@
     <t>Wortley2006</t>
   </si>
   <si>
-    <t>Zanol2012</t>
-  </si>
-  <si>
     <t>Zhu2013</t>
   </si>
   <si>
@@ -150,6 +147,9 @@
   </si>
   <si>
     <t>Conrad2008 [nee Wiens2010]</t>
+  </si>
+  <si>
+    <t>Zanol2014</t>
   </si>
 </sst>
 </file>
@@ -512,7 +512,7 @@
   <dimension ref="A1:J23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G15" sqref="G15"/>
+      <selection activeCell="G18" sqref="G18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -522,34 +522,34 @@
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D1" t="s">
+        <v>32</v>
+      </c>
+      <c r="E1" t="s">
+        <v>33</v>
+      </c>
+      <c r="F1" t="s">
+        <v>34</v>
+      </c>
+      <c r="G1" t="s">
         <v>36</v>
       </c>
-      <c r="B1" t="s">
-        <v>31</v>
-      </c>
-      <c r="C1" t="s">
-        <v>32</v>
-      </c>
-      <c r="D1" t="s">
-        <v>33</v>
-      </c>
-      <c r="E1" t="s">
-        <v>34</v>
-      </c>
-      <c r="F1" t="s">
-        <v>35</v>
-      </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>37</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>38</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>39</v>
-      </c>
-      <c r="J1" t="s">
-        <v>40</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
@@ -799,7 +799,7 @@
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B12" t="s">
         <v>25</v>
@@ -877,7 +877,7 @@
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B15" t="s">
         <v>12</v>
@@ -946,22 +946,13 @@
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="B18" t="s">
         <v>1</v>
       </c>
-      <c r="C18">
-        <v>80</v>
-      </c>
-      <c r="D18">
-        <v>230</v>
-      </c>
-      <c r="E18">
-        <v>69.099999999999994</v>
-      </c>
-      <c r="F18">
-        <v>17.3</v>
+      <c r="G18">
+        <v>1</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">

--- a/matrix_progress.xlsx
+++ b/matrix_progress.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="44">
   <si>
     <t>Aguado2009</t>
   </si>
@@ -150,6 +150,12 @@
   </si>
   <si>
     <t>Zanol2014</t>
+  </si>
+  <si>
+    <t>Aria2015</t>
+  </si>
+  <si>
+    <t>Arthropods</t>
   </si>
 </sst>
 </file>
@@ -509,10 +515,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A103D6C0-D7FF-4DC9-A848-61273A1C93D6}">
-  <dimension ref="A1:J23"/>
+  <dimension ref="A1:J24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G18" sqref="G18"/>
+      <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -638,45 +644,36 @@
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>28</v>
+        <v>42</v>
       </c>
       <c r="B5" t="s">
-        <v>5</v>
+        <v>43</v>
       </c>
       <c r="C5">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="D5">
-        <v>105</v>
-      </c>
-      <c r="E5">
-        <v>20</v>
-      </c>
-      <c r="F5">
-        <v>3.7</v>
-      </c>
-      <c r="G5">
-        <v>1</v>
+        <v>50</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>13</v>
+        <v>28</v>
       </c>
       <c r="B6" t="s">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="C6">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="D6">
-        <v>137</v>
+        <v>105</v>
       </c>
       <c r="E6">
-        <v>43.8</v>
+        <v>20</v>
       </c>
       <c r="F6">
-        <v>9.6</v>
+        <v>3.7</v>
       </c>
       <c r="G6">
         <v>1</v>
@@ -684,22 +681,22 @@
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="B7" t="s">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="C7">
-        <v>54</v>
+        <v>43</v>
       </c>
       <c r="D7">
-        <v>131</v>
+        <v>137</v>
       </c>
       <c r="E7">
-        <v>31.3</v>
+        <v>43.8</v>
       </c>
       <c r="F7">
-        <v>10</v>
+        <v>9.6</v>
       </c>
       <c r="G7">
         <v>1</v>
@@ -707,22 +704,22 @@
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="B8" t="s">
         <v>5</v>
       </c>
       <c r="C8">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D8">
-        <v>104</v>
+        <v>131</v>
       </c>
       <c r="E8">
-        <v>63.5</v>
+        <v>31.3</v>
       </c>
       <c r="F8">
-        <v>4.0999999999999996</v>
+        <v>10</v>
       </c>
       <c r="G8">
         <v>1</v>
@@ -730,22 +727,22 @@
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="B9" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C9">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="D9">
-        <v>317</v>
+        <v>104</v>
       </c>
       <c r="E9">
-        <v>2.8</v>
+        <v>63.5</v>
       </c>
       <c r="F9">
-        <v>0.4</v>
+        <v>4.0999999999999996</v>
       </c>
       <c r="G9">
         <v>1</v>
@@ -753,22 +750,22 @@
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="B10" t="s">
-        <v>27</v>
+        <v>3</v>
       </c>
       <c r="C10">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="D10">
-        <v>165</v>
+        <v>317</v>
       </c>
       <c r="E10">
-        <v>43</v>
+        <v>2.8</v>
       </c>
       <c r="F10">
-        <v>11.1</v>
+        <v>0.4</v>
       </c>
       <c r="G10">
         <v>1</v>
@@ -776,22 +773,22 @@
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="B11" t="s">
-        <v>3</v>
+        <v>27</v>
       </c>
       <c r="C11">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="D11">
-        <v>317</v>
+        <v>165</v>
       </c>
       <c r="E11">
-        <v>44.5</v>
+        <v>43</v>
       </c>
       <c r="F11">
-        <v>5.4</v>
+        <v>11.1</v>
       </c>
       <c r="G11">
         <v>1</v>
@@ -799,22 +796,22 @@
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>40</v>
+        <v>19</v>
       </c>
       <c r="B12" t="s">
-        <v>25</v>
+        <v>3</v>
       </c>
       <c r="C12">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D12">
-        <v>363</v>
+        <v>317</v>
       </c>
       <c r="E12">
-        <v>41.9</v>
+        <v>44.5</v>
       </c>
       <c r="F12">
-        <v>7.7</v>
+        <v>5.4</v>
       </c>
       <c r="G12">
         <v>1</v>
@@ -822,77 +819,77 @@
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>10</v>
+        <v>40</v>
       </c>
       <c r="B13" t="s">
-        <v>3</v>
+        <v>25</v>
       </c>
       <c r="C13">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="D13">
-        <v>186</v>
+        <v>363</v>
       </c>
       <c r="E13">
-        <v>46.8</v>
+        <v>41.9</v>
       </c>
       <c r="F13">
-        <v>2</v>
+        <v>7.7</v>
       </c>
       <c r="G13">
-        <v>1</v>
-      </c>
-      <c r="H13">
-        <v>1</v>
-      </c>
-      <c r="I13">
-        <v>1</v>
-      </c>
-      <c r="J13">
         <v>1</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="B14" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="C14">
         <v>68</v>
       </c>
       <c r="D14">
-        <v>308</v>
+        <v>186</v>
       </c>
       <c r="E14">
-        <v>31.5</v>
+        <v>46.8</v>
       </c>
       <c r="F14">
-        <v>6.4</v>
+        <v>2</v>
       </c>
       <c r="G14">
+        <v>1</v>
+      </c>
+      <c r="H14">
+        <v>1</v>
+      </c>
+      <c r="I14">
+        <v>1</v>
+      </c>
+      <c r="J14">
         <v>1</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>29</v>
+        <v>15</v>
       </c>
       <c r="B15" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="C15">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="D15">
-        <v>253</v>
+        <v>308</v>
       </c>
       <c r="E15">
-        <v>70.8</v>
+        <v>31.5</v>
       </c>
       <c r="F15">
-        <v>19.3</v>
+        <v>6.4</v>
       </c>
       <c r="G15">
         <v>1</v>
@@ -900,22 +897,22 @@
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>0</v>
+        <v>29</v>
       </c>
       <c r="B16" t="s">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="C16">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D16">
-        <v>107</v>
+        <v>253</v>
       </c>
       <c r="E16">
-        <v>40.200000000000003</v>
+        <v>70.8</v>
       </c>
       <c r="F16">
-        <v>5</v>
+        <v>19.3</v>
       </c>
       <c r="G16">
         <v>1</v>
@@ -923,22 +920,22 @@
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="B17" t="s">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="C17">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="D17">
-        <v>236</v>
+        <v>107</v>
       </c>
       <c r="E17">
-        <v>74.2</v>
+        <v>40.200000000000003</v>
       </c>
       <c r="F17">
-        <v>17.3</v>
+        <v>5</v>
       </c>
       <c r="G17">
         <v>1</v>
@@ -946,10 +943,22 @@
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>41</v>
+        <v>11</v>
       </c>
       <c r="B18" t="s">
-        <v>1</v>
+        <v>12</v>
+      </c>
+      <c r="C18">
+        <v>78</v>
+      </c>
+      <c r="D18">
+        <v>236</v>
+      </c>
+      <c r="E18">
+        <v>74.2</v>
+      </c>
+      <c r="F18">
+        <v>17.3</v>
       </c>
       <c r="G18">
         <v>1</v>
@@ -957,22 +966,10 @@
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>7</v>
+        <v>41</v>
       </c>
       <c r="B19" t="s">
-        <v>8</v>
-      </c>
-      <c r="C19">
-        <v>88</v>
-      </c>
-      <c r="D19">
-        <v>220</v>
-      </c>
-      <c r="E19">
-        <v>8.1999999999999993</v>
-      </c>
-      <c r="F19">
-        <v>1.6</v>
+        <v>1</v>
       </c>
       <c r="G19">
         <v>1</v>
@@ -980,89 +977,112 @@
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>21</v>
+        <v>7</v>
       </c>
       <c r="B20" t="s">
         <v>8</v>
       </c>
       <c r="C20">
-        <v>105</v>
+        <v>88</v>
       </c>
       <c r="D20">
-        <v>392</v>
+        <v>220</v>
       </c>
       <c r="E20">
-        <v>100</v>
+        <v>8.1999999999999993</v>
       </c>
       <c r="F20">
-        <v>20.100000000000001</v>
+        <v>1.6</v>
+      </c>
+      <c r="G20">
+        <v>1</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B21" t="s">
-        <v>23</v>
+        <v>8</v>
       </c>
       <c r="C21">
-        <v>177</v>
+        <v>105</v>
       </c>
       <c r="D21">
-        <v>237</v>
+        <v>392</v>
       </c>
       <c r="E21">
-        <v>81.900000000000006</v>
+        <v>100</v>
       </c>
       <c r="F21">
-        <v>26.5</v>
+        <v>20.100000000000001</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>4</v>
+        <v>22</v>
       </c>
       <c r="B22" t="s">
-        <v>5</v>
+        <v>23</v>
       </c>
       <c r="C22">
-        <v>205</v>
+        <v>177</v>
       </c>
       <c r="D22">
-        <v>105</v>
+        <v>237</v>
       </c>
       <c r="E22">
-        <v>35.200000000000003</v>
+        <v>81.900000000000006</v>
       </c>
       <c r="F22">
-        <v>8.3000000000000007</v>
+        <v>26.5</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B23" t="s">
         <v>5</v>
       </c>
       <c r="C23">
+        <v>205</v>
+      </c>
+      <c r="D23">
+        <v>105</v>
+      </c>
+      <c r="E23">
+        <v>35.200000000000003</v>
+      </c>
+      <c r="F23">
+        <v>8.3000000000000007</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>6</v>
+      </c>
+      <c r="B24" t="s">
+        <v>5</v>
+      </c>
+      <c r="C24">
         <v>818</v>
       </c>
-      <c r="D23">
+      <c r="D24">
         <v>417</v>
       </c>
-      <c r="E23">
+      <c r="E24">
         <v>81.5</v>
       </c>
-      <c r="F23">
+      <c r="F24">
         <v>21.1</v>
       </c>
     </row>
   </sheetData>
-  <sortState ref="A2:F23">
-    <sortCondition ref="C2:C23"/>
+  <sortState ref="A2:F24">
+    <sortCondition ref="C2:C24"/>
   </sortState>
-  <conditionalFormatting sqref="G2:I23 J3:J4 J13">
+  <conditionalFormatting sqref="G2:I24 J3:J5 J14">
     <cfRule type="notContainsBlanks" dxfId="0" priority="1">
       <formula>LEN(TRIM(G2))&gt;0</formula>
     </cfRule>

--- a/matrix_progress.xlsx
+++ b/matrix_progress.xlsx
@@ -518,7 +518,7 @@
   <dimension ref="A1:J24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
+      <selection activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -654,6 +654,9 @@
       </c>
       <c r="D5">
         <v>50</v>
+      </c>
+      <c r="G5">
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">

--- a/matrix_progress.xlsx
+++ b/matrix_progress.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="62">
   <si>
     <t>Aguado2009</t>
   </si>
@@ -152,9 +152,6 @@
     <t>Aria2015</t>
   </si>
   <si>
-    <t>Arthropods</t>
-  </si>
-  <si>
     <t xml:space="preserve"> Agnarsson2004.nex                 </t>
   </si>
   <si>
@@ -201,6 +198,18 @@
   </si>
   <si>
     <t>Priapulida</t>
+  </si>
+  <si>
+    <t>family</t>
+  </si>
+  <si>
+    <t>rank</t>
+  </si>
+  <si>
+    <t>phylum</t>
+  </si>
+  <si>
+    <t>Euarthropods</t>
   </si>
 </sst>
 </file>
@@ -568,10 +577,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A103D6C0-D7FF-4DC9-A848-61273A1C93D6}">
-  <dimension ref="A1:J35"/>
+  <dimension ref="A1:K35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
+      <selection activeCell="K10" sqref="K10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
@@ -580,7 +589,7 @@
     <col min="2" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>34</v>
       </c>
@@ -588,72 +597,72 @@
         <v>30</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>17</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="C2" s="1">
+      <c r="D2" s="1">
         <v>19</v>
       </c>
-      <c r="D2" s="1">
+      <c r="E2" s="1">
         <v>119</v>
       </c>
-      <c r="E2" s="1">
+      <c r="F2" s="1">
         <v>26.1</v>
       </c>
-      <c r="F2" s="1">
+      <c r="G2" s="1">
         <v>5.7</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="1">
+      <c r="D3" s="1">
         <v>23</v>
       </c>
-      <c r="D3" s="1">
+      <c r="E3" s="1">
         <v>126</v>
       </c>
-      <c r="E3" s="1">
+      <c r="F3" s="1">
         <v>31.7</v>
       </c>
-      <c r="F3" s="1">
+      <c r="G3" s="1">
         <v>3.9</v>
       </c>
-      <c r="G3" s="1">
-        <v>1</v>
-      </c>
       <c r="H3" s="1">
         <v>1</v>
       </c>
@@ -663,398 +672,425 @@
       <c r="J3" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K3" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>24</v>
       </c>
       <c r="B4" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="D4" s="1">
+        <v>23</v>
+      </c>
+      <c r="E4" s="1">
         <v>57</v>
       </c>
-      <c r="C4" s="1">
+      <c r="F4" s="1">
+        <v>43.9</v>
+      </c>
+      <c r="G4" s="1">
+        <v>20.9</v>
+      </c>
+      <c r="H4" s="1">
+        <v>1</v>
+      </c>
+      <c r="I4" s="1">
+        <v>1</v>
+      </c>
+      <c r="J4" s="1">
+        <v>1</v>
+      </c>
+      <c r="K4" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A5" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="D5" s="1">
         <v>23</v>
       </c>
-      <c r="D4" s="1">
-        <v>57</v>
-      </c>
-      <c r="E4" s="1">
-        <v>43.9</v>
-      </c>
-      <c r="F4" s="1">
-        <v>20.9</v>
-      </c>
-      <c r="G4" s="1">
-        <v>1</v>
-      </c>
-      <c r="H4" s="1">
-        <v>1</v>
-      </c>
-      <c r="I4" s="1">
-        <v>1</v>
-      </c>
-      <c r="J4" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A5" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="C5" s="1">
-        <v>23</v>
-      </c>
-      <c r="D5" s="1">
+      <c r="E5" s="1">
         <v>109</v>
       </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="H5" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C6" s="1">
+      <c r="C6" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="D6" s="1">
         <v>33</v>
       </c>
-      <c r="D6" s="1">
+      <c r="E6" s="1">
         <v>50</v>
       </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="H6" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="C7" s="1">
+        <v>46</v>
+      </c>
+      <c r="D7" s="1">
         <v>34</v>
       </c>
-      <c r="D7" s="1">
+      <c r="E7" s="1">
         <v>107</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
         <v>41</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="C8" s="1">
+        <v>61</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="D8" s="1">
         <v>35</v>
       </c>
-      <c r="D8" s="1">
+      <c r="E8" s="1">
         <v>50</v>
       </c>
-      <c r="G8" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="H8" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="C9" s="1">
+        <v>47</v>
+      </c>
+      <c r="D9" s="1">
         <v>36</v>
       </c>
-      <c r="D9" s="1">
+      <c r="E9" s="1">
         <v>52</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
         <v>28</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C10" s="1">
+      <c r="D10" s="1">
         <v>37</v>
       </c>
-      <c r="D10" s="1">
+      <c r="E10" s="1">
         <v>105</v>
       </c>
-      <c r="E10" s="1">
+      <c r="F10" s="1">
         <v>20</v>
       </c>
-      <c r="F10" s="1">
+      <c r="G10" s="1">
         <v>3.7</v>
       </c>
-      <c r="G10" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="H10" s="1">
+        <v>1</v>
+      </c>
+      <c r="I10" s="1">
+        <v>1</v>
+      </c>
+      <c r="J10" s="1">
+        <v>1</v>
+      </c>
+      <c r="K10" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="C11" s="1">
+        <v>45</v>
+      </c>
+      <c r="D11" s="1">
         <v>40</v>
       </c>
-      <c r="D11" s="1">
+      <c r="E11" s="1">
         <v>150</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
         <v>13</v>
       </c>
       <c r="B12" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C12" s="1">
+      <c r="D12" s="1">
         <v>43</v>
       </c>
-      <c r="D12" s="1">
+      <c r="E12" s="1">
         <v>137</v>
       </c>
-      <c r="E12" s="1">
+      <c r="F12" s="1">
         <v>43.8</v>
       </c>
-      <c r="F12" s="1">
+      <c r="G12" s="1">
         <v>9.6</v>
       </c>
-      <c r="G12" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="H12" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="C13" s="1">
+        <v>54</v>
+      </c>
+      <c r="D13" s="1">
         <v>52</v>
       </c>
-      <c r="D13" s="1">
+      <c r="E13" s="1">
         <v>58</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
         <v>9</v>
       </c>
       <c r="B14" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C14" s="1">
+      <c r="D14" s="1">
         <v>54</v>
       </c>
-      <c r="D14" s="1">
+      <c r="E14" s="1">
         <v>131</v>
       </c>
-      <c r="E14" s="1">
+      <c r="F14" s="1">
         <v>31.3</v>
       </c>
-      <c r="F14" s="1">
+      <c r="G14" s="1">
         <v>10</v>
       </c>
-      <c r="G14" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="H14" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="C15" s="1">
+        <v>57</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="D15" s="1">
         <v>55</v>
       </c>
-      <c r="D15" s="1">
+      <c r="E15" s="1">
         <v>88</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
         <v>16</v>
       </c>
       <c r="B16" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C16" s="1">
+      <c r="D16" s="1">
         <v>56</v>
       </c>
-      <c r="D16" s="1">
+      <c r="E16" s="1">
         <v>104</v>
       </c>
-      <c r="E16" s="1">
+      <c r="F16" s="1">
         <v>63.5</v>
       </c>
-      <c r="F16" s="1">
+      <c r="G16" s="1">
         <v>4.0999999999999996</v>
       </c>
-      <c r="G16" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="H16" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
         <v>20</v>
       </c>
       <c r="B17" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C17" s="1">
+      <c r="D17" s="1">
         <v>58</v>
       </c>
-      <c r="D17" s="1">
+      <c r="E17" s="1">
         <v>317</v>
       </c>
-      <c r="E17" s="1">
+      <c r="F17" s="1">
         <v>2.8</v>
       </c>
-      <c r="F17" s="1">
+      <c r="G17" s="1">
         <v>0.4</v>
       </c>
-      <c r="G17" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="H17" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="C18" s="1">
+        <v>50</v>
+      </c>
+      <c r="D18" s="1">
         <v>59</v>
       </c>
-      <c r="D18" s="1">
+      <c r="E18" s="1">
         <v>202</v>
       </c>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
         <v>26</v>
       </c>
       <c r="B19" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="C19" s="1">
+      <c r="D19" s="1">
         <v>61</v>
       </c>
-      <c r="D19" s="1">
+      <c r="E19" s="1">
         <v>165</v>
       </c>
-      <c r="E19" s="1">
+      <c r="F19" s="1">
         <v>43</v>
       </c>
-      <c r="F19" s="1">
+      <c r="G19" s="1">
         <v>11.1</v>
       </c>
-      <c r="G19" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="H19" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="C20" s="1">
+        <v>42</v>
+      </c>
+      <c r="D20" s="1">
         <v>62</v>
       </c>
-      <c r="D20" s="1">
+      <c r="E20" s="1">
         <v>242</v>
       </c>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
         <v>19</v>
       </c>
       <c r="B21" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C21" s="1">
+      <c r="D21" s="1">
         <v>63</v>
       </c>
-      <c r="D21" s="1">
+      <c r="E21" s="1">
         <v>317</v>
       </c>
-      <c r="E21" s="1">
+      <c r="F21" s="1">
         <v>44.5</v>
       </c>
-      <c r="F21" s="1">
+      <c r="G21" s="1">
         <v>5.4</v>
       </c>
-      <c r="G21" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="H21" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="C22" s="1">
+        <v>51</v>
+      </c>
+      <c r="D22" s="1">
         <v>63</v>
       </c>
-      <c r="D22" s="1">
+      <c r="E22" s="1">
         <v>150</v>
       </c>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
         <v>39</v>
       </c>
       <c r="B23" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="C23" s="1">
+      <c r="D23" s="1">
         <v>64</v>
       </c>
-      <c r="D23" s="1">
+      <c r="E23" s="1">
         <v>363</v>
       </c>
-      <c r="E23" s="1">
+      <c r="F23" s="1">
         <v>41.9</v>
       </c>
-      <c r="F23" s="1">
+      <c r="G23" s="1">
         <v>7.7</v>
       </c>
-      <c r="G23" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="H23" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B24" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C24" s="1">
+      <c r="D24" s="1">
         <v>67</v>
       </c>
-      <c r="D24" s="1">
+      <c r="E24" s="1">
         <v>135</v>
       </c>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
         <v>10</v>
       </c>
       <c r="B25" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C25" s="1">
+      <c r="D25" s="1">
         <v>68</v>
       </c>
-      <c r="D25" s="1">
+      <c r="E25" s="1">
         <v>186</v>
       </c>
-      <c r="E25" s="1">
+      <c r="F25" s="1">
         <v>46.8</v>
       </c>
-      <c r="F25" s="1">
+      <c r="G25" s="1">
         <v>2</v>
       </c>
-      <c r="G25" s="1">
-        <v>1</v>
-      </c>
       <c r="H25" s="1">
         <v>1</v>
       </c>
@@ -1064,220 +1100,232 @@
       <c r="J25" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K25" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A26" s="1" t="s">
         <v>15</v>
       </c>
       <c r="B26" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C26" s="1">
+      <c r="D26" s="1">
         <v>68</v>
       </c>
-      <c r="D26" s="1">
+      <c r="E26" s="1">
         <v>308</v>
       </c>
-      <c r="E26" s="1">
+      <c r="F26" s="1">
         <v>31.5</v>
       </c>
-      <c r="F26" s="1">
+      <c r="G26" s="1">
         <v>6.4</v>
       </c>
-      <c r="G26" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="H26" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A27" s="1" t="s">
         <v>29</v>
       </c>
       <c r="B27" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C27" s="1">
+      <c r="D27" s="1">
         <v>75</v>
       </c>
-      <c r="D27" s="1">
+      <c r="E27" s="1">
         <v>253</v>
       </c>
-      <c r="E27" s="1">
+      <c r="F27" s="1">
         <v>70.8</v>
       </c>
-      <c r="F27" s="1">
+      <c r="G27" s="1">
         <v>19.3</v>
       </c>
-      <c r="G27" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="H27" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A28" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B28" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C28" s="1">
+      <c r="D28" s="1">
         <v>76</v>
       </c>
-      <c r="D28" s="1">
+      <c r="E28" s="1">
         <v>107</v>
       </c>
-      <c r="E28" s="1">
+      <c r="F28" s="1">
         <v>40.200000000000003</v>
       </c>
-      <c r="F28" s="1">
+      <c r="G28" s="1">
         <v>5</v>
       </c>
-      <c r="G28" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="H28" s="1">
+        <v>1</v>
+      </c>
+      <c r="I28" s="1">
+        <v>1</v>
+      </c>
+      <c r="J28" s="1">
+        <v>1</v>
+      </c>
+      <c r="K28" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A29" s="1" t="s">
         <v>11</v>
       </c>
       <c r="B29" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C29" s="1">
+      <c r="D29" s="1">
         <v>78</v>
       </c>
-      <c r="D29" s="1">
+      <c r="E29" s="1">
         <v>236</v>
       </c>
-      <c r="E29" s="1">
+      <c r="F29" s="1">
         <v>74.2</v>
       </c>
-      <c r="F29" s="1">
+      <c r="G29" s="1">
         <v>17.3</v>
       </c>
-      <c r="G29" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="H29" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A30" s="1" t="s">
         <v>7</v>
       </c>
       <c r="B30" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C30" s="1">
+      <c r="D30" s="1">
         <v>88</v>
       </c>
-      <c r="D30" s="1">
+      <c r="E30" s="1">
         <v>220</v>
       </c>
-      <c r="E30" s="1">
+      <c r="F30" s="1">
         <v>8.1999999999999993</v>
       </c>
-      <c r="F30" s="1">
+      <c r="G30" s="1">
         <v>1.6</v>
       </c>
-      <c r="G30" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="H30" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A31" s="1" t="s">
         <v>21</v>
       </c>
       <c r="B31" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C31" s="1">
+      <c r="D31" s="1">
         <v>105</v>
       </c>
-      <c r="D31" s="1">
+      <c r="E31" s="1">
         <v>392</v>
       </c>
-      <c r="E31" s="1">
+      <c r="F31" s="1">
         <v>100</v>
       </c>
-      <c r="F31" s="1">
+      <c r="G31" s="1">
         <v>20.100000000000001</v>
       </c>
     </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A32" s="1" t="s">
         <v>22</v>
       </c>
       <c r="B32" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="C32" s="1">
+      <c r="D32" s="1">
         <v>177</v>
       </c>
-      <c r="D32" s="1">
+      <c r="E32" s="1">
         <v>237</v>
       </c>
-      <c r="E32" s="1">
+      <c r="F32" s="1">
         <v>81.900000000000006</v>
       </c>
-      <c r="F32" s="1">
+      <c r="G32" s="1">
         <v>26.5</v>
       </c>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A33" s="1" t="s">
         <v>4</v>
       </c>
       <c r="B33" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C33" s="1">
+      <c r="D33" s="1">
         <v>205</v>
       </c>
-      <c r="D33" s="1">
+      <c r="E33" s="1">
         <v>105</v>
       </c>
-      <c r="E33" s="1">
+      <c r="F33" s="1">
         <v>35.200000000000003</v>
       </c>
-      <c r="F33" s="1">
+      <c r="G33" s="1">
         <v>8.3000000000000007</v>
       </c>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A34" s="1" t="s">
         <v>6</v>
       </c>
       <c r="B34" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C34" s="1">
+      <c r="D34" s="1">
         <v>818</v>
       </c>
-      <c r="D34" s="1">
+      <c r="E34" s="1">
         <v>417</v>
       </c>
-      <c r="E34" s="1">
+      <c r="F34" s="1">
         <v>81.5</v>
       </c>
-      <c r="F34" s="1">
+      <c r="G34" s="1">
         <v>21.1</v>
       </c>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A35" s="1" t="s">
         <v>40</v>
       </c>
       <c r="B35" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="G35" s="1">
+      <c r="H35" s="1">
         <v>1</v>
       </c>
     </row>
   </sheetData>
-  <sortState ref="A2:J40">
-    <sortCondition ref="C2:C40"/>
+  <sortState ref="A2:K40">
+    <sortCondition ref="D2:D40"/>
   </sortState>
-  <conditionalFormatting sqref="G2:J35">
+  <conditionalFormatting sqref="H2:K35">
     <cfRule type="notContainsBlanks" dxfId="0" priority="1">
-      <formula>LEN(TRIM(G2))&gt;0</formula>
+      <formula>LEN(TRIM(H2))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/matrix_progress.xlsx
+++ b/matrix_progress.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="65">
   <si>
     <t>Aguado2009</t>
   </si>
@@ -210,6 +210,15 @@
   </si>
   <si>
     <t>Euarthropods</t>
+  </si>
+  <si>
+    <t>…</t>
+  </si>
+  <si>
+    <t>Aphididae</t>
+  </si>
+  <si>
+    <t>tribe</t>
   </si>
 </sst>
 </file>
@@ -580,13 +589,23 @@
   <dimension ref="A1:K35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K10" sqref="K10"/>
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="16384" width="9.140625" style="1"/>
+    <col min="1" max="1" width="21.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="6" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="4" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="4.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="7.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="7.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="6.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="5.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.2">
@@ -727,6 +746,9 @@
       <c r="H5" s="1">
         <v>1</v>
       </c>
+      <c r="I5" s="1" t="s">
+        <v>62</v>
+      </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
@@ -752,11 +774,20 @@
       <c r="A7" s="1" t="s">
         <v>46</v>
       </c>
+      <c r="B7" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>58</v>
+      </c>
       <c r="D7" s="1">
         <v>34</v>
       </c>
       <c r="E7" s="1">
         <v>107</v>
+      </c>
+      <c r="H7" s="1">
+        <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.2">
@@ -783,11 +814,20 @@
       <c r="A9" s="1" t="s">
         <v>47</v>
       </c>
+      <c r="B9" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>64</v>
+      </c>
       <c r="D9" s="1">
         <v>36</v>
       </c>
       <c r="E9" s="1">
         <v>52</v>
+      </c>
+      <c r="H9" s="1">
+        <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.2">

--- a/matrix_progress.xlsx
+++ b/matrix_progress.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="67">
   <si>
     <t>Aguado2009</t>
   </si>
@@ -164,9 +164,6 @@
     <t xml:space="preserve"> OLeary1999.nex                    </t>
   </si>
   <si>
-    <t xml:space="preserve"> Rousset 2004.nex                  </t>
-  </si>
-  <si>
     <t xml:space="preserve"> Sano2011.nex                      </t>
   </si>
   <si>
@@ -212,13 +209,22 @@
     <t>Euarthropods</t>
   </si>
   <si>
-    <t>…</t>
-  </si>
-  <si>
     <t>Aphididae</t>
   </si>
   <si>
     <t>tribe</t>
+  </si>
+  <si>
+    <t>Cetacea</t>
+  </si>
+  <si>
+    <t>order</t>
+  </si>
+  <si>
+    <t>zzz</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Rousset2004.nex                  </t>
   </si>
 </sst>
 </file>
@@ -268,7 +274,35 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="1">
+  <dxfs count="5">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -589,12 +623,12 @@
   <dimension ref="A1:K35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="21.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.5703125" style="1" customWidth="1"/>
     <col min="2" max="2" width="13.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="6" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="4" style="1" bestFit="1" customWidth="1"/>
@@ -616,10 +650,10 @@
         <v>30</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>31</v>
@@ -700,10 +734,10 @@
         <v>24</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D4" s="1">
         <v>23</v>
@@ -732,10 +766,10 @@
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D5" s="1">
         <v>23</v>
@@ -747,7 +781,10 @@
         <v>1</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>62</v>
+        <v>65</v>
+      </c>
+      <c r="J5" s="1">
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.2">
@@ -758,7 +795,7 @@
         <v>1</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D6" s="1">
         <v>33</v>
@@ -769,16 +806,22 @@
       <c r="H6" s="1">
         <v>1</v>
       </c>
+      <c r="I6" s="1">
+        <v>1</v>
+      </c>
+      <c r="J6" s="1" t="s">
+        <v>65</v>
+      </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
-        <v>46</v>
+        <v>66</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D7" s="1">
         <v>34</v>
@@ -788,6 +831,9 @@
       </c>
       <c r="H7" s="1">
         <v>1</v>
+      </c>
+      <c r="I7" s="1" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.2">
@@ -795,10 +841,10 @@
         <v>41</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D8" s="1">
         <v>35</v>
@@ -812,13 +858,13 @@
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="D9" s="1">
         <v>36</v>
@@ -866,11 +912,20 @@
       <c r="A11" s="1" t="s">
         <v>45</v>
       </c>
+      <c r="B11" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>64</v>
+      </c>
       <c r="D11" s="1">
         <v>40</v>
       </c>
       <c r="E11" s="1">
         <v>150</v>
+      </c>
+      <c r="H11" s="1">
+        <v>1</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.2">
@@ -898,10 +953,10 @@
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D13" s="1">
         <v>52</v>
@@ -932,16 +987,22 @@
       <c r="H14" s="1">
         <v>1</v>
       </c>
+      <c r="I14" s="1">
+        <v>1</v>
+      </c>
+      <c r="J14" s="1">
+        <v>1</v>
+      </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D15" s="1">
         <v>55</v>
@@ -998,7 +1059,7 @@
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D18" s="1">
         <v>59</v>
@@ -1066,7 +1127,7 @@
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D22" s="1">
         <v>63</v>
@@ -1364,11 +1425,31 @@
     <sortCondition ref="D2:D40"/>
   </sortState>
   <conditionalFormatting sqref="H2:K35">
-    <cfRule type="notContainsBlanks" dxfId="0" priority="1">
-      <formula>LEN(TRIM(H2))&gt;0</formula>
+    <cfRule type="cellIs" dxfId="1" priority="2" operator="greaterThan">
+      <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
+      <x14:conditionalFormattings>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="containsText" priority="1" operator="containsText" id="{900B0843-DC6F-4B93-8620-D73E71134E20}">
+            <xm:f>NOT(ISERROR(SEARCH("zzz",H2)))</xm:f>
+            <xm:f>"zzz"</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill>
+                  <bgColor theme="7"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <xm:sqref>H2:K35</xm:sqref>
+        </x14:conditionalFormatting>
+      </x14:conditionalFormattings>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
--- a/matrix_progress.xlsx
+++ b/matrix_progress.xlsx
@@ -623,7 +623,7 @@
   <dimension ref="A1:K35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+      <selection activeCell="K5" activeCellId="1" sqref="K6 K5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
@@ -780,10 +780,13 @@
       <c r="H5" s="1">
         <v>1</v>
       </c>
-      <c r="I5" s="1" t="s">
-        <v>65</v>
+      <c r="I5" s="1">
+        <v>1</v>
       </c>
       <c r="J5" s="1">
+        <v>1</v>
+      </c>
+      <c r="K5" s="1">
         <v>1</v>
       </c>
     </row>
@@ -832,8 +835,8 @@
       <c r="H7" s="1">
         <v>1</v>
       </c>
-      <c r="I7" s="1" t="s">
-        <v>65</v>
+      <c r="I7" s="1">
+        <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.2">
@@ -855,6 +858,9 @@
       <c r="H8" s="1">
         <v>1</v>
       </c>
+      <c r="I8" s="1" t="s">
+        <v>65</v>
+      </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
@@ -874,6 +880,9 @@
       </c>
       <c r="H9" s="1">
         <v>1</v>
+      </c>
+      <c r="I9" s="1" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.2">

--- a/matrix_progress.xlsx
+++ b/matrix_progress.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="67">
   <si>
     <t>Aguado2009</t>
   </si>
@@ -623,7 +623,7 @@
   <dimension ref="A1:K35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K5" activeCellId="1" sqref="K6 K5"/>
+      <selection activeCell="K7" sqref="K7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
@@ -812,8 +812,11 @@
       <c r="I6" s="1">
         <v>1</v>
       </c>
-      <c r="J6" s="1" t="s">
-        <v>65</v>
+      <c r="J6" s="1">
+        <v>1</v>
+      </c>
+      <c r="K6" s="1">
+        <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.2">
@@ -835,8 +838,11 @@
       <c r="H7" s="1">
         <v>1</v>
       </c>
-      <c r="I7" s="1">
-        <v>1</v>
+      <c r="I7" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="J7" s="1" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.2">
@@ -858,8 +864,8 @@
       <c r="H8" s="1">
         <v>1</v>
       </c>
-      <c r="I8" s="1" t="s">
-        <v>65</v>
+      <c r="I8" s="1">
+        <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.2">
@@ -881,8 +887,8 @@
       <c r="H9" s="1">
         <v>1</v>
       </c>
-      <c r="I9" s="1" t="s">
-        <v>65</v>
+      <c r="I9" s="1">
+        <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.2">

--- a/matrix_progress.xlsx
+++ b/matrix_progress.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="67">
   <si>
     <t>Aguado2009</t>
   </si>
@@ -838,11 +838,14 @@
       <c r="H7" s="1">
         <v>1</v>
       </c>
-      <c r="I7" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="J7" s="1" t="s">
-        <v>65</v>
+      <c r="I7" s="1">
+        <v>1</v>
+      </c>
+      <c r="J7" s="1">
+        <v>1</v>
+      </c>
+      <c r="K7" s="1">
+        <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.2">
@@ -867,6 +870,9 @@
       <c r="I8" s="1">
         <v>1</v>
       </c>
+      <c r="J8" s="1" t="s">
+        <v>65</v>
+      </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
@@ -978,6 +984,9 @@
       </c>
       <c r="E13" s="1">
         <v>58</v>
+      </c>
+      <c r="H13" s="1">
+        <v>1</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.2">

--- a/matrix_progress.xlsx
+++ b/matrix_progress.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="69">
   <si>
     <t>Aguado2009</t>
   </si>
@@ -225,6 +225,12 @@
   </si>
   <si>
     <t xml:space="preserve"> Rousset2004.nex                  </t>
+  </si>
+  <si>
+    <t>Arachnids</t>
+  </si>
+  <si>
+    <t>class</t>
   </si>
 </sst>
 </file>
@@ -623,7 +629,7 @@
   <dimension ref="A1:K35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K7" sqref="K7"/>
+      <selection activeCell="H20" sqref="H20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
@@ -870,8 +876,11 @@
       <c r="I8" s="1">
         <v>1</v>
       </c>
-      <c r="J8" s="1" t="s">
-        <v>65</v>
+      <c r="J8" s="1">
+        <v>1</v>
+      </c>
+      <c r="K8" s="1">
+        <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.2">
@@ -896,6 +905,12 @@
       <c r="I9" s="1">
         <v>1</v>
       </c>
+      <c r="J9" s="1">
+        <v>1</v>
+      </c>
+      <c r="K9" s="1">
+        <v>1</v>
+      </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
@@ -948,6 +963,12 @@
       <c r="H11" s="1">
         <v>1</v>
       </c>
+      <c r="I11" s="1">
+        <v>1</v>
+      </c>
+      <c r="J11" s="1" t="s">
+        <v>65</v>
+      </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
@@ -971,6 +992,9 @@
       <c r="H12" s="1">
         <v>1</v>
       </c>
+      <c r="I12" s="1" t="s">
+        <v>65</v>
+      </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
@@ -988,6 +1012,9 @@
       <c r="H13" s="1">
         <v>1</v>
       </c>
+      <c r="I13" s="1" t="s">
+        <v>65</v>
+      </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
@@ -1034,6 +1061,9 @@
       <c r="E15" s="1">
         <v>88</v>
       </c>
+      <c r="H15" s="1">
+        <v>1</v>
+      </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
@@ -1085,11 +1115,23 @@
       <c r="A18" s="1" t="s">
         <v>49</v>
       </c>
+      <c r="B18" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>68</v>
+      </c>
       <c r="D18" s="1">
         <v>59</v>
       </c>
       <c r="E18" s="1">
         <v>202</v>
+      </c>
+      <c r="H18" s="1">
+        <v>1</v>
+      </c>
+      <c r="I18" s="1" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.2">
@@ -1119,11 +1161,20 @@
       <c r="A20" s="1" t="s">
         <v>42</v>
       </c>
+      <c r="B20" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>57</v>
+      </c>
       <c r="D20" s="1">
         <v>62</v>
       </c>
       <c r="E20" s="1">
         <v>242</v>
+      </c>
+      <c r="H20" s="1">
+        <v>1</v>
       </c>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.2">

--- a/matrix_progress.xlsx
+++ b/matrix_progress.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="71">
   <si>
     <t>Aguado2009</t>
   </si>
@@ -231,6 +231,12 @@
   </si>
   <si>
     <t>class</t>
+  </si>
+  <si>
+    <t>Bats</t>
+  </si>
+  <si>
+    <t>{!}</t>
   </si>
 </sst>
 </file>
@@ -629,7 +635,7 @@
   <dimension ref="A1:K35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H20" sqref="H20"/>
+      <selection activeCell="K13" sqref="K13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
@@ -966,8 +972,11 @@
       <c r="I11" s="1">
         <v>1</v>
       </c>
-      <c r="J11" s="1" t="s">
-        <v>65</v>
+      <c r="J11" s="1">
+        <v>1</v>
+      </c>
+      <c r="K11" s="1">
+        <v>1</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.2">
@@ -992,8 +1001,14 @@
       <c r="H12" s="1">
         <v>1</v>
       </c>
-      <c r="I12" s="1" t="s">
-        <v>65</v>
+      <c r="I12" s="1">
+        <v>1</v>
+      </c>
+      <c r="J12" s="1">
+        <v>1</v>
+      </c>
+      <c r="K12" s="1">
+        <v>1</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.2">
@@ -1012,8 +1027,11 @@
       <c r="H13" s="1">
         <v>1</v>
       </c>
-      <c r="I13" s="1" t="s">
-        <v>65</v>
+      <c r="I13" s="1">
+        <v>1</v>
+      </c>
+      <c r="J13" s="1">
+        <v>1</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.2">
@@ -1044,6 +1062,9 @@
       <c r="J14" s="1">
         <v>1</v>
       </c>
+      <c r="K14" s="1">
+        <v>1</v>
+      </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
@@ -1064,6 +1085,12 @@
       <c r="H15" s="1">
         <v>1</v>
       </c>
+      <c r="I15" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="J15" s="1" t="s">
+        <v>65</v>
+      </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
@@ -1087,6 +1114,9 @@
       <c r="H16" s="1">
         <v>1</v>
       </c>
+      <c r="I16" s="1">
+        <v>1</v>
+      </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
@@ -1110,6 +1140,9 @@
       <c r="H17" s="1">
         <v>1</v>
       </c>
+      <c r="I17" s="1" t="s">
+        <v>65</v>
+      </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
@@ -1130,8 +1163,8 @@
       <c r="H18" s="1">
         <v>1</v>
       </c>
-      <c r="I18" s="1" t="s">
-        <v>65</v>
+      <c r="I18" s="1">
+        <v>1</v>
       </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.2">
@@ -1156,6 +1189,9 @@
       <c r="H19" s="1">
         <v>1</v>
       </c>
+      <c r="I19" s="1" t="s">
+        <v>65</v>
+      </c>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
@@ -1204,11 +1240,17 @@
       <c r="A22" s="1" t="s">
         <v>50</v>
       </c>
+      <c r="B22" s="1" t="s">
+        <v>69</v>
+      </c>
       <c r="D22" s="1">
         <v>63</v>
       </c>
       <c r="E22" s="1">
         <v>150</v>
+      </c>
+      <c r="H22" s="1">
+        <v>1</v>
       </c>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.2">
@@ -1241,11 +1283,17 @@
       <c r="B24" s="1" t="s">
         <v>1</v>
       </c>
+      <c r="C24" s="1" t="s">
+        <v>57</v>
+      </c>
       <c r="D24" s="1">
         <v>67</v>
       </c>
       <c r="E24" s="1">
         <v>135</v>
+      </c>
+      <c r="H24" s="1">
+        <v>1</v>
       </c>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.2">

--- a/matrix_progress.xlsx
+++ b/matrix_progress.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="71">
   <si>
     <t>Aguado2009</t>
   </si>
@@ -236,7 +236,7 @@
     <t>Bats</t>
   </si>
   <si>
-    <t>{!}</t>
+    <t>svgOut</t>
   </si>
 </sst>
 </file>
@@ -286,32 +286,11 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="5">
+  <dxfs count="2">
     <dxf>
       <fill>
         <patternFill>
           <bgColor theme="7"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.39994506668294322"/>
         </patternFill>
       </fill>
     </dxf>
@@ -632,10 +611,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A103D6C0-D7FF-4DC9-A848-61273A1C93D6}">
-  <dimension ref="A1:K35"/>
+  <dimension ref="A1:L35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K13" sqref="K13"/>
+      <selection activeCell="E30" sqref="E30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
@@ -654,7 +633,7 @@
     <col min="12" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>34</v>
       </c>
@@ -688,8 +667,11 @@
       <c r="K1" s="1" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L1" s="1" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>17</v>
       </c>
@@ -708,8 +690,11 @@
       <c r="G2" s="1">
         <v>5.7</v>
       </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="H2" s="1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
@@ -741,7 +726,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>24</v>
       </c>
@@ -776,7 +761,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>47</v>
       </c>
@@ -801,8 +786,11 @@
       <c r="K5" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L5" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>44</v>
       </c>
@@ -831,7 +819,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>66</v>
       </c>
@@ -860,7 +848,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
         <v>41</v>
       </c>
@@ -889,7 +877,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
         <v>46</v>
       </c>
@@ -918,7 +906,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
         <v>28</v>
       </c>
@@ -950,7 +938,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
         <v>45</v>
       </c>
@@ -979,7 +967,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
         <v>13</v>
       </c>
@@ -1011,7 +999,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
         <v>48</v>
       </c>
@@ -1034,7 +1022,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
         <v>9</v>
       </c>
@@ -1066,7 +1054,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
         <v>51</v>
       </c>
@@ -1085,14 +1073,14 @@
       <c r="H15" s="1">
         <v>1</v>
       </c>
-      <c r="I15" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="J15" s="1" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="I15" s="1">
+        <v>1</v>
+      </c>
+      <c r="J15" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
         <v>16</v>
       </c>
@@ -1115,6 +1103,12 @@
         <v>1</v>
       </c>
       <c r="I16" s="1">
+        <v>1</v>
+      </c>
+      <c r="J16" s="1">
+        <v>1</v>
+      </c>
+      <c r="K16" s="1">
         <v>1</v>
       </c>
     </row>
@@ -1140,8 +1134,11 @@
       <c r="H17" s="1">
         <v>1</v>
       </c>
-      <c r="I17" s="1" t="s">
-        <v>65</v>
+      <c r="I17" s="1">
+        <v>1</v>
+      </c>
+      <c r="J17" s="1">
+        <v>1</v>
       </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.2">
@@ -1166,6 +1163,9 @@
       <c r="I18" s="1">
         <v>1</v>
       </c>
+      <c r="J18" s="1">
+        <v>1</v>
+      </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
@@ -1189,8 +1189,8 @@
       <c r="H19" s="1">
         <v>1</v>
       </c>
-      <c r="I19" s="1" t="s">
-        <v>65</v>
+      <c r="I19" s="1">
+        <v>1</v>
       </c>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.2">
@@ -1212,6 +1212,9 @@
       <c r="H20" s="1">
         <v>1</v>
       </c>
+      <c r="I20" s="1">
+        <v>1</v>
+      </c>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
@@ -1235,6 +1238,12 @@
       <c r="H21" s="1">
         <v>1</v>
       </c>
+      <c r="I21" s="1">
+        <v>1</v>
+      </c>
+      <c r="J21" s="1" t="s">
+        <v>65</v>
+      </c>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
@@ -1252,6 +1261,9 @@
       <c r="H22" s="1">
         <v>1</v>
       </c>
+      <c r="I22" s="1">
+        <v>1</v>
+      </c>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
@@ -1275,6 +1287,9 @@
       <c r="H23" s="1">
         <v>1</v>
       </c>
+      <c r="I23" s="1">
+        <v>1</v>
+      </c>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
@@ -1295,6 +1310,9 @@
       <c r="H24" s="1">
         <v>1</v>
       </c>
+      <c r="I24" s="1">
+        <v>1</v>
+      </c>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
@@ -1350,6 +1368,9 @@
       <c r="H26" s="1">
         <v>1</v>
       </c>
+      <c r="I26" s="1">
+        <v>1</v>
+      </c>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A27" s="1" t="s">
@@ -1373,6 +1394,9 @@
       <c r="H27" s="1">
         <v>1</v>
       </c>
+      <c r="I27" s="1">
+        <v>1</v>
+      </c>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A28" s="1" t="s">
@@ -1428,126 +1452,141 @@
       <c r="H29" s="1">
         <v>1</v>
       </c>
+      <c r="I29" s="1">
+        <v>1</v>
+      </c>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A30" s="1" t="s">
-        <v>7</v>
+        <v>40</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="D30" s="1">
-        <v>88</v>
+        <v>74</v>
       </c>
       <c r="E30" s="1">
-        <v>220</v>
-      </c>
-      <c r="F30" s="1">
-        <v>8.1999999999999993</v>
-      </c>
-      <c r="G30" s="1">
-        <v>1.6</v>
+        <v>213</v>
       </c>
       <c r="H30" s="1">
+        <v>1</v>
+      </c>
+      <c r="I30" s="1">
         <v>1</v>
       </c>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A31" s="1" t="s">
-        <v>21</v>
+        <v>7</v>
       </c>
       <c r="B31" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D31" s="1">
-        <v>105</v>
+        <v>88</v>
       </c>
       <c r="E31" s="1">
-        <v>392</v>
+        <v>220</v>
       </c>
       <c r="F31" s="1">
-        <v>100</v>
+        <v>8.1999999999999993</v>
       </c>
       <c r="G31" s="1">
-        <v>20.100000000000001</v>
+        <v>1.6</v>
+      </c>
+      <c r="H31" s="1">
+        <v>1</v>
+      </c>
+      <c r="I31" s="1">
+        <v>1</v>
       </c>
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A32" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D32" s="1">
+        <v>105</v>
+      </c>
+      <c r="E32" s="1">
+        <v>392</v>
+      </c>
+      <c r="F32" s="1">
+        <v>100</v>
+      </c>
+      <c r="G32" s="1">
+        <v>20.100000000000001</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A33" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="B32" s="1" t="s">
+      <c r="B33" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="D32" s="1">
+      <c r="D33" s="1">
         <v>177</v>
       </c>
-      <c r="E32" s="1">
+      <c r="E33" s="1">
         <v>237</v>
       </c>
-      <c r="F32" s="1">
+      <c r="F33" s="1">
         <v>81.900000000000006</v>
       </c>
-      <c r="G32" s="1">
+      <c r="G33" s="1">
         <v>26.5</v>
       </c>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A33" s="1" t="s">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A34" s="1" t="s">
         <v>4</v>
-      </c>
-      <c r="B33" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D33" s="1">
-        <v>205</v>
-      </c>
-      <c r="E33" s="1">
-        <v>105</v>
-      </c>
-      <c r="F33" s="1">
-        <v>35.200000000000003</v>
-      </c>
-      <c r="G33" s="1">
-        <v>8.3000000000000007</v>
-      </c>
-    </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A34" s="1" t="s">
-        <v>6</v>
       </c>
       <c r="B34" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D34" s="1">
+        <v>205</v>
+      </c>
+      <c r="E34" s="1">
+        <v>105</v>
+      </c>
+      <c r="F34" s="1">
+        <v>35.200000000000003</v>
+      </c>
+      <c r="G34" s="1">
+        <v>8.3000000000000007</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A35" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D35" s="1">
         <v>818</v>
       </c>
-      <c r="E34" s="1">
+      <c r="E35" s="1">
         <v>417</v>
       </c>
-      <c r="F34" s="1">
+      <c r="F35" s="1">
         <v>81.5</v>
       </c>
-      <c r="G34" s="1">
+      <c r="G35" s="1">
         <v>21.1</v>
       </c>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A35" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="B35" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="H35" s="1">
-        <v>1</v>
-      </c>
-    </row>
   </sheetData>
-  <sortState ref="A2:K40">
-    <sortCondition ref="D2:D40"/>
+  <sortState ref="A2:L35">
+    <sortCondition ref="D2:D35"/>
   </sortState>
-  <conditionalFormatting sqref="H2:K35">
+  <conditionalFormatting sqref="H2:K35 L3:L35">
     <cfRule type="cellIs" dxfId="1" priority="2" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
@@ -1569,7 +1608,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <xm:sqref>H2:K35</xm:sqref>
+          <xm:sqref>H2:K35 L3:L35</xm:sqref>
         </x14:conditionalFormatting>
       </x14:conditionalFormattings>
     </ext>

--- a/matrix_progress.xlsx
+++ b/matrix_progress.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="70">
   <si>
     <t>Aguado2009</t>
   </si>
@@ -138,9 +138,6 @@
   </si>
   <si>
     <t>rRuns</t>
-  </si>
-  <si>
-    <t>pdfOut</t>
   </si>
   <si>
     <t>Conrad2008 [nee Wiens2010]</t>
@@ -290,14 +287,14 @@
     <dxf>
       <fill>
         <patternFill>
-          <bgColor theme="7"/>
+          <bgColor theme="9" tint="0.39994506668294322"/>
         </patternFill>
       </fill>
     </dxf>
     <dxf>
       <fill>
         <patternFill>
-          <bgColor theme="9" tint="0.39994506668294322"/>
+          <bgColor theme="7"/>
         </patternFill>
       </fill>
     </dxf>
@@ -611,10 +608,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A103D6C0-D7FF-4DC9-A848-61273A1C93D6}">
-  <dimension ref="A1:L35"/>
+  <dimension ref="A1:K35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E30" sqref="E30"/>
+      <selection activeCell="K24" sqref="K24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
@@ -633,7 +630,7 @@
     <col min="12" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>34</v>
       </c>
@@ -641,10 +638,10 @@
         <v>30</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>31</v>
@@ -665,13 +662,10 @@
         <v>37</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>17</v>
       </c>
@@ -691,10 +685,10 @@
         <v>5.7</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
@@ -722,19 +716,16 @@
       <c r="J3" s="1">
         <v>1</v>
       </c>
-      <c r="K3" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>24</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D4" s="1">
         <v>23</v>
@@ -757,16 +748,13 @@
       <c r="J4" s="1">
         <v>1</v>
       </c>
-      <c r="K4" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D5" s="1">
         <v>23</v>
@@ -783,22 +771,16 @@
       <c r="J5" s="1">
         <v>1</v>
       </c>
-      <c r="K5" s="1">
-        <v>1</v>
-      </c>
-      <c r="L5" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D6" s="1">
         <v>33</v>
@@ -815,19 +797,16 @@
       <c r="J6" s="1">
         <v>1</v>
       </c>
-      <c r="K6" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D7" s="1">
         <v>34</v>
@@ -844,19 +823,16 @@
       <c r="J7" s="1">
         <v>1</v>
       </c>
-      <c r="K7" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D8" s="1">
         <v>35</v>
@@ -873,19 +849,16 @@
       <c r="J8" s="1">
         <v>1</v>
       </c>
-      <c r="K8" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B9" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="C9" s="1" t="s">
         <v>61</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>62</v>
       </c>
       <c r="D9" s="1">
         <v>36</v>
@@ -902,11 +875,8 @@
       <c r="J9" s="1">
         <v>1</v>
       </c>
-      <c r="K9" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
         <v>28</v>
       </c>
@@ -934,19 +904,16 @@
       <c r="J10" s="1">
         <v>1</v>
       </c>
-      <c r="K10" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B11" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="C11" s="1" t="s">
         <v>63</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>64</v>
       </c>
       <c r="D11" s="1">
         <v>40</v>
@@ -963,11 +930,8 @@
       <c r="J11" s="1">
         <v>1</v>
       </c>
-      <c r="K11" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
         <v>13</v>
       </c>
@@ -995,16 +959,13 @@
       <c r="J12" s="1">
         <v>1</v>
       </c>
-      <c r="K12" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D13" s="1">
         <v>52</v>
@@ -1022,7 +983,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
         <v>9</v>
       </c>
@@ -1050,19 +1011,16 @@
       <c r="J14" s="1">
         <v>1</v>
       </c>
-      <c r="K14" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D15" s="1">
         <v>55</v>
@@ -1080,7 +1038,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
         <v>16</v>
       </c>
@@ -1106,9 +1064,6 @@
         <v>1</v>
       </c>
       <c r="J16" s="1">
-        <v>1</v>
-      </c>
-      <c r="K16" s="1">
         <v>1</v>
       </c>
     </row>
@@ -1143,13 +1098,13 @@
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B18" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="C18" s="1" t="s">
         <v>67</v>
-      </c>
-      <c r="C18" s="1" t="s">
-        <v>68</v>
       </c>
       <c r="D18" s="1">
         <v>59</v>
@@ -1195,13 +1150,13 @@
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B20" s="1" t="s">
         <v>14</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D20" s="1">
         <v>62</v>
@@ -1213,6 +1168,9 @@
         <v>1</v>
       </c>
       <c r="I20" s="1">
+        <v>1</v>
+      </c>
+      <c r="J20" s="1">
         <v>1</v>
       </c>
     </row>
@@ -1241,16 +1199,16 @@
       <c r="I21" s="1">
         <v>1</v>
       </c>
-      <c r="J21" s="1" t="s">
-        <v>65</v>
+      <c r="J21" s="1">
+        <v>1</v>
       </c>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D22" s="1">
         <v>63</v>
@@ -1267,7 +1225,7 @@
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B23" s="1" t="s">
         <v>25</v>
@@ -1290,16 +1248,19 @@
       <c r="I23" s="1">
         <v>1</v>
       </c>
+      <c r="J23" s="1" t="s">
+        <v>64</v>
+      </c>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B24" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D24" s="1">
         <v>67</v>
@@ -1311,6 +1272,12 @@
         <v>1</v>
       </c>
       <c r="I24" s="1">
+        <v>1</v>
+      </c>
+      <c r="J24" s="1">
+        <v>1</v>
+      </c>
+      <c r="K24" s="1">
         <v>1</v>
       </c>
     </row>
@@ -1342,9 +1309,6 @@
       <c r="J25" s="1">
         <v>1</v>
       </c>
-      <c r="K25" s="1">
-        <v>1</v>
-      </c>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A26" s="1" t="s">
@@ -1426,9 +1390,6 @@
       <c r="J28" s="1">
         <v>1</v>
       </c>
-      <c r="K28" s="1">
-        <v>1</v>
-      </c>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A29" s="1" t="s">
@@ -1458,7 +1419,7 @@
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A30" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B30" s="1" t="s">
         <v>1</v>
@@ -1583,11 +1544,11 @@
       </c>
     </row>
   </sheetData>
-  <sortState ref="A2:L35">
+  <sortState ref="A2:K35">
     <sortCondition ref="D2:D35"/>
   </sortState>
-  <conditionalFormatting sqref="H2:K35 L3:L35">
-    <cfRule type="cellIs" dxfId="1" priority="2" operator="greaterThan">
+  <conditionalFormatting sqref="H2:J35 K3:K35">
+    <cfRule type="cellIs" dxfId="0" priority="2" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -1608,7 +1569,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <xm:sqref>H2:K35 L3:L35</xm:sqref>
+          <xm:sqref>H2:J35 K3:K35</xm:sqref>
         </x14:conditionalFormatting>
       </x14:conditionalFormattings>
     </ext>

--- a/matrix_progress.xlsx
+++ b/matrix_progress.xlsx
@@ -611,7 +611,7 @@
   <dimension ref="A1:K35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K24" sqref="K24"/>
+      <selection activeCell="J12" sqref="J12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
@@ -667,45 +667,45 @@
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>17</v>
+        <v>41</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>18</v>
+        <v>14</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>56</v>
       </c>
       <c r="D2" s="1">
-        <v>19</v>
+        <v>62</v>
       </c>
       <c r="E2" s="1">
-        <v>119</v>
-      </c>
-      <c r="F2" s="1">
-        <v>26.1</v>
-      </c>
-      <c r="G2" s="1">
-        <v>5.7</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>64</v>
+        <v>242</v>
+      </c>
+      <c r="H2" s="1">
+        <v>1</v>
+      </c>
+      <c r="I2" s="1">
+        <v>1</v>
+      </c>
+      <c r="J2" s="1">
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
-        <v>2</v>
+        <v>42</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>3</v>
+        <v>1</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>56</v>
       </c>
       <c r="D3" s="1">
-        <v>23</v>
+        <v>67</v>
       </c>
       <c r="E3" s="1">
-        <v>126</v>
-      </c>
-      <c r="F3" s="1">
-        <v>31.7</v>
-      </c>
-      <c r="G3" s="1">
-        <v>3.9</v>
+        <v>135</v>
       </c>
       <c r="H3" s="1">
         <v>1</v>
@@ -714,30 +714,27 @@
         <v>1</v>
       </c>
       <c r="J3" s="1">
+        <v>1</v>
+      </c>
+      <c r="K3" s="1">
         <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
-        <v>24</v>
+        <v>43</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>54</v>
+        <v>1</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="D4" s="1">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="E4" s="1">
-        <v>57</v>
-      </c>
-      <c r="F4" s="1">
-        <v>43.9</v>
-      </c>
-      <c r="G4" s="1">
-        <v>20.9</v>
+        <v>50</v>
       </c>
       <c r="H4" s="1">
         <v>1</v>
@@ -751,16 +748,19 @@
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>53</v>
+        <v>62</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>63</v>
       </c>
       <c r="D5" s="1">
-        <v>23</v>
+        <v>40</v>
       </c>
       <c r="E5" s="1">
-        <v>109</v>
+        <v>150</v>
       </c>
       <c r="H5" s="1">
         <v>1</v>
@@ -774,7 +774,7 @@
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
-        <v>43</v>
+        <v>65</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>1</v>
@@ -783,10 +783,10 @@
         <v>56</v>
       </c>
       <c r="D6" s="1">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E6" s="1">
-        <v>50</v>
+        <v>107</v>
       </c>
       <c r="H6" s="1">
         <v>1</v>
@@ -800,19 +800,19 @@
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
-        <v>65</v>
+        <v>45</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>1</v>
+        <v>60</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="D7" s="1">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="E7" s="1">
-        <v>107</v>
+        <v>52</v>
       </c>
       <c r="H7" s="1">
         <v>1</v>
@@ -826,19 +826,16 @@
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="D8" s="1">
-        <v>35</v>
+        <v>23</v>
       </c>
       <c r="E8" s="1">
-        <v>50</v>
+        <v>109</v>
       </c>
       <c r="H8" s="1">
         <v>1</v>
@@ -852,19 +849,16 @@
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>61</v>
+        <v>52</v>
       </c>
       <c r="D9" s="1">
-        <v>36</v>
+        <v>52</v>
       </c>
       <c r="E9" s="1">
-        <v>52</v>
+        <v>58</v>
       </c>
       <c r="H9" s="1">
         <v>1</v>
@@ -878,22 +872,19 @@
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
-        <v>28</v>
+        <v>48</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>5</v>
+        <v>66</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>67</v>
       </c>
       <c r="D10" s="1">
-        <v>37</v>
+        <v>59</v>
       </c>
       <c r="E10" s="1">
-        <v>105</v>
-      </c>
-      <c r="F10" s="1">
-        <v>20</v>
-      </c>
-      <c r="G10" s="1">
-        <v>3.7</v>
+        <v>202</v>
       </c>
       <c r="H10" s="1">
         <v>1</v>
@@ -907,16 +898,13 @@
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="C11" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="D11" s="1">
         <v>63</v>
-      </c>
-      <c r="D11" s="1">
-        <v>40</v>
       </c>
       <c r="E11" s="1">
         <v>150</v>
@@ -927,28 +915,22 @@
       <c r="I11" s="1">
         <v>1</v>
       </c>
-      <c r="J11" s="1">
-        <v>1</v>
-      </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
-        <v>13</v>
+        <v>50</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>14</v>
+        <v>55</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>58</v>
       </c>
       <c r="D12" s="1">
-        <v>43</v>
+        <v>55</v>
       </c>
       <c r="E12" s="1">
-        <v>137</v>
-      </c>
-      <c r="F12" s="1">
-        <v>43.8</v>
-      </c>
-      <c r="G12" s="1">
-        <v>9.6</v>
+        <v>88</v>
       </c>
       <c r="H12" s="1">
         <v>1</v>
@@ -962,16 +944,22 @@
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
-        <v>47</v>
+        <v>0</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>52</v>
+        <v>1</v>
       </c>
       <c r="D13" s="1">
-        <v>52</v>
+        <v>76</v>
       </c>
       <c r="E13" s="1">
-        <v>58</v>
+        <v>107</v>
+      </c>
+      <c r="F13" s="1">
+        <v>40.200000000000003</v>
+      </c>
+      <c r="G13" s="1">
+        <v>5</v>
       </c>
       <c r="H13" s="1">
         <v>1</v>
@@ -985,22 +973,19 @@
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
-        <v>9</v>
+        <v>40</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>5</v>
+        <v>59</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>58</v>
       </c>
       <c r="D14" s="1">
-        <v>54</v>
+        <v>35</v>
       </c>
       <c r="E14" s="1">
-        <v>131</v>
-      </c>
-      <c r="F14" s="1">
-        <v>31.3</v>
-      </c>
-      <c r="G14" s="1">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="H14" s="1">
         <v>1</v>
@@ -1014,19 +999,22 @@
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
-        <v>50</v>
+        <v>2</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>58</v>
+        <v>3</v>
       </c>
       <c r="D15" s="1">
-        <v>55</v>
+        <v>23</v>
       </c>
       <c r="E15" s="1">
-        <v>88</v>
+        <v>126</v>
+      </c>
+      <c r="F15" s="1">
+        <v>31.7</v>
+      </c>
+      <c r="G15" s="1">
+        <v>3.9</v>
       </c>
       <c r="H15" s="1">
         <v>1</v>
@@ -1040,77 +1028,62 @@
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="B16" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D16" s="1">
-        <v>56</v>
+        <v>205</v>
       </c>
       <c r="E16" s="1">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="F16" s="1">
-        <v>63.5</v>
+        <v>35.200000000000003</v>
       </c>
       <c r="G16" s="1">
-        <v>4.0999999999999996</v>
-      </c>
-      <c r="H16" s="1">
-        <v>1</v>
-      </c>
-      <c r="I16" s="1">
-        <v>1</v>
-      </c>
-      <c r="J16" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.2">
+        <v>8.3000000000000007</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D17" s="1">
-        <v>58</v>
+        <v>818</v>
       </c>
       <c r="E17" s="1">
-        <v>317</v>
+        <v>417</v>
       </c>
       <c r="F17" s="1">
-        <v>2.8</v>
+        <v>81.5</v>
       </c>
       <c r="G17" s="1">
-        <v>0.4</v>
-      </c>
-      <c r="H17" s="1">
-        <v>1</v>
-      </c>
-      <c r="I17" s="1">
-        <v>1</v>
-      </c>
-      <c r="J17" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.2">
+        <v>21.1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
-        <v>48</v>
+        <v>38</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="C18" s="1" t="s">
-        <v>67</v>
+        <v>25</v>
       </c>
       <c r="D18" s="1">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="E18" s="1">
-        <v>202</v>
+        <v>363</v>
+      </c>
+      <c r="F18" s="1">
+        <v>41.9</v>
+      </c>
+      <c r="G18" s="1">
+        <v>7.7</v>
       </c>
       <c r="H18" s="1">
         <v>1</v>
@@ -1118,28 +1091,28 @@
       <c r="I18" s="1">
         <v>1</v>
       </c>
-      <c r="J18" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="J18" s="1" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
-        <v>26</v>
+        <v>7</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>27</v>
+        <v>8</v>
       </c>
       <c r="D19" s="1">
-        <v>61</v>
+        <v>88</v>
       </c>
       <c r="E19" s="1">
-        <v>165</v>
+        <v>220</v>
       </c>
       <c r="F19" s="1">
-        <v>43</v>
+        <v>8.1999999999999993</v>
       </c>
       <c r="G19" s="1">
-        <v>11.1</v>
+        <v>1.6</v>
       </c>
       <c r="H19" s="1">
         <v>1</v>
@@ -1148,21 +1121,24 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
-        <v>41</v>
+        <v>9</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="C20" s="1" t="s">
-        <v>56</v>
+        <v>5</v>
       </c>
       <c r="D20" s="1">
-        <v>62</v>
+        <v>54</v>
       </c>
       <c r="E20" s="1">
-        <v>242</v>
+        <v>131</v>
+      </c>
+      <c r="F20" s="1">
+        <v>31.3</v>
+      </c>
+      <c r="G20" s="1">
+        <v>10</v>
       </c>
       <c r="H20" s="1">
         <v>1</v>
@@ -1174,378 +1150,402 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="B21" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D21" s="1">
+        <v>68</v>
+      </c>
+      <c r="E21" s="1">
+        <v>186</v>
+      </c>
+      <c r="F21" s="1">
+        <v>46.8</v>
+      </c>
+      <c r="G21" s="1">
+        <v>2</v>
+      </c>
+      <c r="H21" s="1">
+        <v>1</v>
+      </c>
+      <c r="I21" s="1">
+        <v>1</v>
+      </c>
+      <c r="J21" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A22" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D22" s="1">
+        <v>78</v>
+      </c>
+      <c r="E22" s="1">
+        <v>236</v>
+      </c>
+      <c r="F22" s="1">
+        <v>74.2</v>
+      </c>
+      <c r="G22" s="1">
+        <v>17.3</v>
+      </c>
+      <c r="H22" s="1">
+        <v>1</v>
+      </c>
+      <c r="I22" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A23" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D23" s="1">
+        <v>43</v>
+      </c>
+      <c r="E23" s="1">
+        <v>137</v>
+      </c>
+      <c r="F23" s="1">
+        <v>43.8</v>
+      </c>
+      <c r="G23" s="1">
+        <v>9.6</v>
+      </c>
+      <c r="H23" s="1">
+        <v>1</v>
+      </c>
+      <c r="I23" s="1">
+        <v>1</v>
+      </c>
+      <c r="J23" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A24" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D24" s="1">
+        <v>68</v>
+      </c>
+      <c r="E24" s="1">
+        <v>308</v>
+      </c>
+      <c r="F24" s="1">
+        <v>31.5</v>
+      </c>
+      <c r="G24" s="1">
+        <v>6.4</v>
+      </c>
+      <c r="H24" s="1">
+        <v>1</v>
+      </c>
+      <c r="I24" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A25" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D25" s="1">
+        <v>56</v>
+      </c>
+      <c r="E25" s="1">
+        <v>104</v>
+      </c>
+      <c r="F25" s="1">
+        <v>63.5</v>
+      </c>
+      <c r="G25" s="1">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="H25" s="1">
+        <v>1</v>
+      </c>
+      <c r="I25" s="1">
+        <v>1</v>
+      </c>
+      <c r="J25" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A26" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D26" s="1">
+        <v>19</v>
+      </c>
+      <c r="E26" s="1">
+        <v>119</v>
+      </c>
+      <c r="F26" s="1">
+        <v>26.1</v>
+      </c>
+      <c r="G26" s="1">
+        <v>5.7</v>
+      </c>
+      <c r="H26" s="1" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A27" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D27" s="1">
         <v>63</v>
       </c>
-      <c r="E21" s="1">
+      <c r="E27" s="1">
         <v>317</v>
       </c>
-      <c r="F21" s="1">
+      <c r="F27" s="1">
         <v>44.5</v>
       </c>
-      <c r="G21" s="1">
+      <c r="G27" s="1">
         <v>5.4</v>
       </c>
-      <c r="H21" s="1">
-        <v>1</v>
-      </c>
-      <c r="I21" s="1">
-        <v>1</v>
-      </c>
-      <c r="J21" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A22" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="B22" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="D22" s="1">
-        <v>63</v>
-      </c>
-      <c r="E22" s="1">
-        <v>150</v>
-      </c>
-      <c r="H22" s="1">
-        <v>1</v>
-      </c>
-      <c r="I22" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A23" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="B23" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="D23" s="1">
-        <v>64</v>
-      </c>
-      <c r="E23" s="1">
-        <v>363</v>
-      </c>
-      <c r="F23" s="1">
-        <v>41.9</v>
-      </c>
-      <c r="G23" s="1">
-        <v>7.7</v>
-      </c>
-      <c r="H23" s="1">
-        <v>1</v>
-      </c>
-      <c r="I23" s="1">
-        <v>1</v>
-      </c>
-      <c r="J23" s="1" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A24" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="B24" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C24" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="D24" s="1">
-        <v>67</v>
-      </c>
-      <c r="E24" s="1">
-        <v>135</v>
-      </c>
-      <c r="H24" s="1">
-        <v>1</v>
-      </c>
-      <c r="I24" s="1">
-        <v>1</v>
-      </c>
-      <c r="J24" s="1">
-        <v>1</v>
-      </c>
-      <c r="K24" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A25" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B25" s="1" t="s">
+      <c r="H27" s="1">
+        <v>1</v>
+      </c>
+      <c r="I27" s="1">
+        <v>1</v>
+      </c>
+      <c r="J27" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A28" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B28" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D25" s="1">
-        <v>68</v>
-      </c>
-      <c r="E25" s="1">
-        <v>186</v>
-      </c>
-      <c r="F25" s="1">
-        <v>46.8</v>
-      </c>
-      <c r="G25" s="1">
-        <v>2</v>
-      </c>
-      <c r="H25" s="1">
-        <v>1</v>
-      </c>
-      <c r="I25" s="1">
-        <v>1</v>
-      </c>
-      <c r="J25" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A26" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B26" s="1" t="s">
+      <c r="D28" s="1">
+        <v>58</v>
+      </c>
+      <c r="E28" s="1">
+        <v>317</v>
+      </c>
+      <c r="F28" s="1">
+        <v>2.8</v>
+      </c>
+      <c r="G28" s="1">
+        <v>0.4</v>
+      </c>
+      <c r="H28" s="1">
+        <v>1</v>
+      </c>
+      <c r="I28" s="1">
+        <v>1</v>
+      </c>
+      <c r="J28" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A29" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B29" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D26" s="1">
-        <v>68</v>
-      </c>
-      <c r="E26" s="1">
-        <v>308</v>
-      </c>
-      <c r="F26" s="1">
-        <v>31.5</v>
-      </c>
-      <c r="G26" s="1">
-        <v>6.4</v>
-      </c>
-      <c r="H26" s="1">
-        <v>1</v>
-      </c>
-      <c r="I26" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A27" s="1" t="s">
+      <c r="D29" s="1">
+        <v>105</v>
+      </c>
+      <c r="E29" s="1">
+        <v>392</v>
+      </c>
+      <c r="F29" s="1">
+        <v>100</v>
+      </c>
+      <c r="G29" s="1">
+        <v>20.100000000000001</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A30" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D30" s="1">
+        <v>177</v>
+      </c>
+      <c r="E30" s="1">
+        <v>237</v>
+      </c>
+      <c r="F30" s="1">
+        <v>81.900000000000006</v>
+      </c>
+      <c r="G30" s="1">
+        <v>26.5</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A31" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="D31" s="1">
+        <v>23</v>
+      </c>
+      <c r="E31" s="1">
+        <v>57</v>
+      </c>
+      <c r="F31" s="1">
+        <v>43.9</v>
+      </c>
+      <c r="G31" s="1">
+        <v>20.9</v>
+      </c>
+      <c r="H31" s="1">
+        <v>1</v>
+      </c>
+      <c r="I31" s="1">
+        <v>1</v>
+      </c>
+      <c r="J31" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A32" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D32" s="1">
+        <v>61</v>
+      </c>
+      <c r="E32" s="1">
+        <v>165</v>
+      </c>
+      <c r="F32" s="1">
+        <v>43</v>
+      </c>
+      <c r="G32" s="1">
+        <v>11.1</v>
+      </c>
+      <c r="H32" s="1">
+        <v>1</v>
+      </c>
+      <c r="I32" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A33" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D33" s="1">
+        <v>37</v>
+      </c>
+      <c r="E33" s="1">
+        <v>105</v>
+      </c>
+      <c r="F33" s="1">
+        <v>20</v>
+      </c>
+      <c r="G33" s="1">
+        <v>3.7</v>
+      </c>
+      <c r="H33" s="1">
+        <v>1</v>
+      </c>
+      <c r="I33" s="1">
+        <v>1</v>
+      </c>
+      <c r="J33" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A34" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D34" s="1">
+        <v>74</v>
+      </c>
+      <c r="E34" s="1">
+        <v>213</v>
+      </c>
+      <c r="H34" s="1">
+        <v>1</v>
+      </c>
+      <c r="I34" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A35" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="B27" s="1" t="s">
+      <c r="B35" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D27" s="1">
+      <c r="D35" s="1">
         <v>75</v>
       </c>
-      <c r="E27" s="1">
+      <c r="E35" s="1">
         <v>253</v>
       </c>
-      <c r="F27" s="1">
+      <c r="F35" s="1">
         <v>70.8</v>
       </c>
-      <c r="G27" s="1">
+      <c r="G35" s="1">
         <v>19.3</v>
       </c>
-      <c r="H27" s="1">
-        <v>1</v>
-      </c>
-      <c r="I27" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A28" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B28" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D28" s="1">
-        <v>76</v>
-      </c>
-      <c r="E28" s="1">
-        <v>107</v>
-      </c>
-      <c r="F28" s="1">
-        <v>40.200000000000003</v>
-      </c>
-      <c r="G28" s="1">
-        <v>5</v>
-      </c>
-      <c r="H28" s="1">
-        <v>1</v>
-      </c>
-      <c r="I28" s="1">
-        <v>1</v>
-      </c>
-      <c r="J28" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A29" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B29" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D29" s="1">
-        <v>78</v>
-      </c>
-      <c r="E29" s="1">
-        <v>236</v>
-      </c>
-      <c r="F29" s="1">
-        <v>74.2</v>
-      </c>
-      <c r="G29" s="1">
-        <v>17.3</v>
-      </c>
-      <c r="H29" s="1">
-        <v>1</v>
-      </c>
-      <c r="I29" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A30" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="B30" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D30" s="1">
-        <v>74</v>
-      </c>
-      <c r="E30" s="1">
-        <v>213</v>
-      </c>
-      <c r="H30" s="1">
-        <v>1</v>
-      </c>
-      <c r="I30" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A31" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B31" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D31" s="1">
-        <v>88</v>
-      </c>
-      <c r="E31" s="1">
-        <v>220</v>
-      </c>
-      <c r="F31" s="1">
-        <v>8.1999999999999993</v>
-      </c>
-      <c r="G31" s="1">
-        <v>1.6</v>
-      </c>
-      <c r="H31" s="1">
-        <v>1</v>
-      </c>
-      <c r="I31" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A32" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="B32" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D32" s="1">
-        <v>105</v>
-      </c>
-      <c r="E32" s="1">
-        <v>392</v>
-      </c>
-      <c r="F32" s="1">
-        <v>100</v>
-      </c>
-      <c r="G32" s="1">
-        <v>20.100000000000001</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A33" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="B33" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="D33" s="1">
-        <v>177</v>
-      </c>
-      <c r="E33" s="1">
-        <v>237</v>
-      </c>
-      <c r="F33" s="1">
-        <v>81.900000000000006</v>
-      </c>
-      <c r="G33" s="1">
-        <v>26.5</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A34" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B34" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D34" s="1">
-        <v>205</v>
-      </c>
-      <c r="E34" s="1">
-        <v>105</v>
-      </c>
-      <c r="F34" s="1">
-        <v>35.200000000000003</v>
-      </c>
-      <c r="G34" s="1">
-        <v>8.3000000000000007</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A35" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B35" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D35" s="1">
-        <v>818</v>
-      </c>
-      <c r="E35" s="1">
-        <v>417</v>
-      </c>
-      <c r="F35" s="1">
-        <v>81.5</v>
-      </c>
-      <c r="G35" s="1">
-        <v>21.1</v>
+      <c r="H35" s="1">
+        <v>1</v>
+      </c>
+      <c r="I35" s="1">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
   <sortState ref="A2:K35">
-    <sortCondition ref="D2:D35"/>
+    <sortCondition ref="A2:A35"/>
   </sortState>
   <conditionalFormatting sqref="H2:J35 K3:K35">
     <cfRule type="cellIs" dxfId="0" priority="2" operator="greaterThan">

--- a/matrix_progress.xlsx
+++ b/matrix_progress.xlsx
@@ -149,36 +149,6 @@
     <t>Aria2015</t>
   </si>
   <si>
-    <t xml:space="preserve"> Agnarsson2004.nex                 </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Capa2011.nex                      </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> DeAssis2011.nex                   </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> OLeary1999.nex                    </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Sano2011.nex                      </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Sansom2010.nex                    </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Schulze2007.nex                   </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Shultz2007.nex                    </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Wetterer2000.nex                  </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Wills2012.nex                     </t>
-  </si>
-  <si>
     <t>ntax</t>
   </si>
   <si>
@@ -221,9 +191,6 @@
     <t>zzz</t>
   </si>
   <si>
-    <t xml:space="preserve"> Rousset2004.nex                  </t>
-  </si>
-  <si>
     <t>Arachnids</t>
   </si>
   <si>
@@ -234,6 +201,39 @@
   </si>
   <si>
     <t>svgOut</t>
+  </si>
+  <si>
+    <t>Agnarsson2004</t>
+  </si>
+  <si>
+    <t>Capa2011</t>
+  </si>
+  <si>
+    <t>DeAssis2011</t>
+  </si>
+  <si>
+    <t>OLeary1999</t>
+  </si>
+  <si>
+    <t>Rousset2004</t>
+  </si>
+  <si>
+    <t>Sano2011</t>
+  </si>
+  <si>
+    <t>Sansom2010</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Schulze2007 </t>
+  </si>
+  <si>
+    <t>Shultz2007</t>
+  </si>
+  <si>
+    <t>Wetterer2000</t>
+  </si>
+  <si>
+    <t>Wills2012</t>
   </si>
 </sst>
 </file>
@@ -287,14 +287,14 @@
     <dxf>
       <fill>
         <patternFill>
-          <bgColor theme="9" tint="0.39994506668294322"/>
+          <bgColor theme="7"/>
         </patternFill>
       </fill>
     </dxf>
     <dxf>
       <fill>
         <patternFill>
-          <bgColor theme="7"/>
+          <bgColor theme="9" tint="0.39994506668294322"/>
         </patternFill>
       </fill>
     </dxf>
@@ -611,7 +611,7 @@
   <dimension ref="A1:K35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J12" sqref="J12"/>
+      <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
@@ -638,10 +638,10 @@
         <v>30</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>57</v>
+        <v>47</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>31</v>
@@ -662,18 +662,18 @@
         <v>37</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>69</v>
+        <v>58</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>41</v>
+        <v>59</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>14</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>56</v>
+        <v>46</v>
       </c>
       <c r="D2" s="1">
         <v>62</v>
@@ -693,13 +693,13 @@
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
-        <v>42</v>
+        <v>60</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>56</v>
+        <v>46</v>
       </c>
       <c r="D3" s="1">
         <v>67</v>
@@ -722,13 +722,13 @@
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
-        <v>43</v>
+        <v>61</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>56</v>
+        <v>46</v>
       </c>
       <c r="D4" s="1">
         <v>33</v>
@@ -748,13 +748,13 @@
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
-        <v>44</v>
+        <v>62</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>62</v>
+        <v>52</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>63</v>
+        <v>53</v>
       </c>
       <c r="D5" s="1">
         <v>40</v>
@@ -774,13 +774,13 @@
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>56</v>
+        <v>46</v>
       </c>
       <c r="D6" s="1">
         <v>34</v>
@@ -800,13 +800,13 @@
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
-        <v>45</v>
+        <v>64</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>61</v>
+        <v>51</v>
       </c>
       <c r="D7" s="1">
         <v>36</v>
@@ -826,10 +826,10 @@
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
-        <v>46</v>
+        <v>65</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>53</v>
+        <v>43</v>
       </c>
       <c r="D8" s="1">
         <v>23</v>
@@ -849,10 +849,10 @@
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
-        <v>47</v>
+        <v>66</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="D9" s="1">
         <v>52</v>
@@ -872,13 +872,13 @@
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
-        <v>48</v>
+        <v>67</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>66</v>
+        <v>55</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>67</v>
+        <v>56</v>
       </c>
       <c r="D10" s="1">
         <v>59</v>
@@ -898,10 +898,10 @@
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
-        <v>49</v>
+        <v>68</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>68</v>
+        <v>57</v>
       </c>
       <c r="D11" s="1">
         <v>63</v>
@@ -918,13 +918,13 @@
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
-        <v>50</v>
+        <v>69</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>55</v>
+        <v>45</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>58</v>
+        <v>48</v>
       </c>
       <c r="D12" s="1">
         <v>55</v>
@@ -976,10 +976,10 @@
         <v>40</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>59</v>
+        <v>49</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>58</v>
+        <v>48</v>
       </c>
       <c r="D14" s="1">
         <v>35</v>
@@ -1092,7 +1092,7 @@
         <v>1</v>
       </c>
       <c r="J18" s="1" t="s">
-        <v>64</v>
+        <v>54</v>
       </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.2">
@@ -1309,7 +1309,7 @@
         <v>5.7</v>
       </c>
       <c r="H26" s="1" t="s">
-        <v>64</v>
+        <v>54</v>
       </c>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.2">
@@ -1415,10 +1415,10 @@
         <v>24</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>54</v>
+        <v>44</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>58</v>
+        <v>48</v>
       </c>
       <c r="D31" s="1">
         <v>23</v>
@@ -1548,7 +1548,7 @@
     <sortCondition ref="A2:A35"/>
   </sortState>
   <conditionalFormatting sqref="H2:J35 K3:K35">
-    <cfRule type="cellIs" dxfId="0" priority="2" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="1" priority="2" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>

--- a/matrix_progress.xlsx
+++ b/matrix_progress.xlsx
@@ -611,7 +611,7 @@
   <dimension ref="A1:K35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A13" sqref="A13"/>
+      <selection activeCell="F26" sqref="F26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
@@ -1297,10 +1297,10 @@
         <v>18</v>
       </c>
       <c r="D26" s="1">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E26" s="1">
-        <v>119</v>
+        <v>93</v>
       </c>
       <c r="F26" s="1">
         <v>26.1</v>
